--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1914560749073334</v>
+        <v>1.079128395046</v>
       </c>
       <c r="R2">
-        <v>1.148736449444</v>
+        <v>6.474770370276</v>
       </c>
       <c r="S2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="T2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>304.012146</v>
       </c>
       <c r="I3">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J3">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>254.1365213515321</v>
       </c>
       <c r="S3">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="T3">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H4">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I4">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J4">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4186663179791111</v>
+        <v>0.6749744017166668</v>
       </c>
       <c r="R4">
-        <v>3.767996861812001</v>
+        <v>6.074769615450001</v>
       </c>
       <c r="S4">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="T4">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H5">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I5">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J5">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.597833471166667</v>
+        <v>2.204887585383334</v>
       </c>
       <c r="R5">
-        <v>9.587000827000001</v>
+        <v>13.2293255123</v>
       </c>
       <c r="S5">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="T5">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H6">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I6">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J6">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3295398538231112</v>
+        <v>0.1406036796335556</v>
       </c>
       <c r="R6">
-        <v>2.965858684408</v>
+        <v>1.265433116702</v>
       </c>
       <c r="S6">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="T6">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H7">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I7">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J7">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.563857925956</v>
+        <v>0.3686279444484445</v>
       </c>
       <c r="R7">
-        <v>5.074721333604</v>
+        <v>3.317651500036</v>
       </c>
       <c r="S7">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="T7">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
     </row>
   </sheetData>
